--- a/xlsx/社区_intext.xlsx
+++ b/xlsx/社区_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E7%B8%BD%E9%AB%94%E7%87%9F%E9%80%A0</t>
   </si>
   <si>
-    <t>社區總體營造</t>
+    <t>社区总体营造</t>
   </si>
   <si>
     <t>政策_政策_社会政策_社区</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%84%E7%96%87</t>
   </si>
   <si>
-    <t>範疇</t>
+    <t>范畴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9F%E5%B1%B1%E5%B8%82</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9D%91%E5%86%8D%E7%94%9F</t>
   </si>
   <si>
-    <t>農村再生</t>
+    <t>农村再生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9D%91%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>農村社區</t>
+    <t>农村社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E4%B8%AD%E5%B8%82</t>
@@ -197,31 +197,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%93%E6%A8%B9%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>楓樹社區</t>
+    <t>枫树社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%8A%95%E7%B8%A3</t>
   </si>
   <si>
-    <t>南投縣</t>
+    <t>南投县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%98%AD%E7%B8%A3</t>
   </si>
   <si>
-    <t>宜蘭縣</t>
+    <t>宜兰县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>珍珠社區</t>
+    <t>珍珠社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社區網路</t>
+    <t>社区网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
@@ -257,31 +257,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>全民健康保險</t>
+    <t>全民健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E7%85%A7%E8%AD%B7</t>
   </si>
   <si>
-    <t>長期照護</t>
+    <t>长期照护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生理學</t>
+    <t>生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>風險管理</t>
+    <t>风险管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%94%A8%E5%BE%AE%E7%94%9F%E7%89%A9%E5%8F%8A%E5%85%8D%E7%96%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫用微生物及免疫學</t>
+    <t>医用微生物及免疫学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Health_impact_assessment</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>風險評估</t>
+    <t>风险评估</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Toxicology_testing</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%97%85</t>
   </si>
   <si>
-    <t>職業病</t>
+    <t>职业病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E5%AE%89%E5%85%A8%E4%B8%8E%E5%81%A5%E5%BA%B7</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%8E%A9%E5%9F%8B%E5%A0%B4</t>
   </si>
   <si>
-    <t>垃圾掩埋場</t>
+    <t>垃圾掩埋场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E8%88%87%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>全球化與疾病</t>
+    <t>全球化与疾病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E6%BA%9D%E9%80%9A</t>
   </si>
   <si>
-    <t>風險溝通</t>
+    <t>风险沟通</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_justice</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%AD%B8</t>
   </si>
   <si>
-    <t>資訊學</t>
+    <t>资讯学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
@@ -407,37 +407,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E9%98%B2%E6%B2%BB</t>
   </si>
   <si>
-    <t>自殺防治</t>
+    <t>自杀防治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>營養醫學</t>
+    <t>营养医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物統計學</t>
+    <t>生物统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%AB%E8%8B%97%E6%8E%A5%E7%A8%AE</t>
   </si>
   <si>
-    <t>疫苗接種</t>
+    <t>疫苗接种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E5%8E%86</t>
@@ -461,25 +461,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>性傳染病</t>
+    <t>性传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>法定傳染病</t>
+    <t>法定传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E7%96%AB</t>
   </si>
   <si>
-    <t>檢疫</t>
+    <t>检疫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療經濟學</t>
+    <t>医疗经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Health_belief_model</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%95%AB%E8%A1%8C%E7%82%BA%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>計畫行為理論</t>
+    <t>计画行为理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transtheoretical_model</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AA%8D%E7%9F%A5%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>社會認知理論</t>
+    <t>社会认知理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%94%AF%E6%8C%81%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>社會支持理論</t>
+    <t>社会支持理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BC%A0%E6%92%AD</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%A8%AD%E6%AA%A2%E5%AE%9A</t>
   </si>
   <si>
-    <t>假設檢定</t>
+    <t>假设检定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BE%8B%E5%B0%8D%E7%85%A7%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>病例對照研究</t>
+    <t>病例对照研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8F%E6%9C%BA%E5%AF%B9%E7%85%A7%E8%AF%95%E9%AA%8C</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9Ft%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>學生t檢驗</t>
+    <t>学生t检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Z-test</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%AD%B8%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>迴歸分析</t>
+    <t>回归分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E9%A2%A8%E9%9A%AA</t>
   </si>
   <si>
-    <t>相對風險</t>
+    <t>相对风险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAS</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%B7%BB%E5%8A%A0%E5%8A%91</t>
   </si>
   <si>
-    <t>食品添加劑</t>
+    <t>食品添加剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5</t>
@@ -641,25 +641,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%84%AA%E8%89%AF%E8%BE%B2%E7%94%A2%E5%93%81%E8%AD%89%E6%98%8E%E6%A8%99%E7%AB%A0</t>
   </si>
   <si>
-    <t>台灣優良農產品證明標章</t>
+    <t>台湾优良农产品证明标章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%A5%BD%E4%BD%9C%E6%A5%AD%E8%A6%8F%E7%AF%84</t>
   </si>
   <si>
-    <t>良好作業規範</t>
+    <t>良好作业规范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%A5%BD%E8%BE%B2%E6%A5%AD%E8%A6%8F%E7%AF%84</t>
   </si>
   <si>
-    <t>良好農業規範</t>
+    <t>良好农业规范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%AE%B3%E5%88%86%E6%9E%90%E9%87%8D%E8%A6%81%E7%AE%A1%E5%88%B6%E9%BB%9E</t>
   </si>
   <si>
-    <t>危害分析重要管制點</t>
+    <t>危害分析重要管制点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%8A%80%E6%9C%AF</t>
@@ -701,31 +701,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%9F%BA%E5%9B%A0</t>
   </si>
   <si>
-    <t>轉基因</t>
+    <t>转基因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計學</t>
+    <t>统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>會計學</t>
+    <t>会计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
+    <t>传播学</t>
   </si>
 </sst>
 </file>
@@ -3767,7 +3767,7 @@
         <v>186</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
